--- a/endpoints/kettle/admin/quantitative_data/resources/origin/MM355all.xlsx
+++ b/endpoints/kettle/admin/quantitative_data/resources/origin/MM355all.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ComEuropea\OSHA\OSHD15 - ESENER migration\03 - Data\Datos definitivos\ESENER 1\20150714_tables_employee_participation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\biserver-ce\pentaho-solutions\system\osha-dvt-esener\endpoints\kettle\admin\quantitative_data\resources\origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>MM355</t>
+    <t>MM355all</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -497,43 +497,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,21 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -569,6 +554,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,18 +865,18 @@
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -1054,7 +1054,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -1229,7 +1229,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -1299,7 +1299,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -1404,7 +1404,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -1789,7 +1789,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B29" t="s">
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
@@ -2069,7 +2069,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B36" t="s">
@@ -2104,7 +2104,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
@@ -2139,7 +2139,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B38" t="s">
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B42" t="s">
@@ -2314,7 +2314,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B43" t="s">
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
@@ -2384,7 +2384,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B45" t="s">
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B46" t="s">
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B47" t="s">
@@ -2489,7 +2489,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B48" t="s">
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B50" t="s">
@@ -2594,7 +2594,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B51" t="s">
@@ -2629,7 +2629,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B53" t="s">
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B54" t="s">
@@ -2734,7 +2734,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B55" t="s">
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B56" t="s">
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B57" t="s">
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B58" t="s">
@@ -2874,7 +2874,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
@@ -2944,7 +2944,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
@@ -2979,7 +2979,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B62" t="s">
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B63" t="s">
@@ -3049,7 +3049,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
@@ -3084,7 +3084,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B65" t="s">
@@ -3119,7 +3119,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B66" t="s">
@@ -3154,7 +3154,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B67" t="s">
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
@@ -3224,7 +3224,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B69" t="s">
@@ -3259,7 +3259,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B71" t="s">
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B72" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B73" t="s">
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B74" t="s">
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B75" t="s">
@@ -3469,7 +3469,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B76" t="s">
@@ -3504,7 +3504,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B77" t="s">
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B78" t="s">
@@ -3574,7 +3574,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B79" t="s">
@@ -3609,7 +3609,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B80" t="s">
@@ -3644,7 +3644,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B81" t="s">
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B82" t="s">
@@ -3714,7 +3714,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B83" t="s">
@@ -3749,7 +3749,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B84" t="s">
@@ -3784,7 +3784,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B85" t="s">
@@ -3819,7 +3819,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B86" t="s">
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B87" t="s">
@@ -3889,7 +3889,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B88" t="s">
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B89" t="s">
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B90" t="s">
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B91" t="s">
@@ -4029,7 +4029,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B92" t="s">
